--- a/Телефоны.xlsx
+++ b/Телефоны.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sklad_ver2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView windowWidth="21000" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Должность</t>
   </si>
@@ -32,19 +22,145 @@
     <t>Номер телефона</t>
   </si>
   <si>
-    <t>Менеджер склада</t>
-  </si>
-  <si>
-    <t>Кладовщик 1 этаж</t>
-  </si>
-  <si>
     <t>Директор</t>
   </si>
   <si>
-    <t>Руководитель Мебель</t>
-  </si>
-  <si>
-    <t>Руководитель ТДД</t>
+    <t>Руководитель направления "Мебель"</t>
+  </si>
+  <si>
+    <t>Менеджер отдела "Мебель для спальни"</t>
+  </si>
+  <si>
+    <t>Менеджер отдела "Мебель для кухни"</t>
+  </si>
+  <si>
+    <t>Менеджер отдела "Мебель для гостинных"</t>
+  </si>
+  <si>
+    <t>Менеджер отдела «Мебель для прихожих»</t>
+  </si>
+  <si>
+    <t>Кухни 1 ( рум сет А11-030)</t>
+  </si>
+  <si>
+    <t>Кухни планируемые 1</t>
+  </si>
+  <si>
+    <t>Кухни планируемые 2</t>
+  </si>
+  <si>
+    <t>Кухни планируемые 3</t>
+  </si>
+  <si>
+    <t>Кухни планируемые 4</t>
+  </si>
+  <si>
+    <t>Спальни 1</t>
+  </si>
+  <si>
+    <t>Спальни 2</t>
+  </si>
+  <si>
+    <t>Спальни 3 (Флор мебели)</t>
+  </si>
+  <si>
+    <t>Спальни 4</t>
+  </si>
+  <si>
+    <t>Гостиные 1</t>
+  </si>
+  <si>
+    <t>Гостиные 2</t>
+  </si>
+  <si>
+    <t>Гостиные 3</t>
+  </si>
+  <si>
+    <t>Шкафы(планировщик Oscr)</t>
+  </si>
+  <si>
+    <t>Руководитель направления "Товары для дома"</t>
+  </si>
+  <si>
+    <t>Менеджер отдела "Посуда"</t>
+  </si>
+  <si>
+    <t>Менеджер отдела "Шторы и текстиль"</t>
+  </si>
+  <si>
+    <t>Менеджер отдела "Ковры и свет"</t>
+  </si>
+  <si>
+    <t>Посуда 1</t>
+  </si>
+  <si>
+    <t>Посуда 2</t>
+  </si>
+  <si>
+    <t>Постельное белье</t>
+  </si>
+  <si>
+    <t>Подушки</t>
+  </si>
+  <si>
+    <t>Полотенца</t>
+  </si>
+  <si>
+    <t>Шторы</t>
+  </si>
+  <si>
+    <t>Ковры</t>
+  </si>
+  <si>
+    <t>Свет (Флор ТДД)</t>
+  </si>
+  <si>
+    <t>Хранение</t>
+  </si>
+  <si>
+    <t>Офис</t>
+  </si>
+  <si>
+    <t>Декор</t>
+  </si>
+  <si>
+    <t>Картины</t>
+  </si>
+  <si>
+    <t>Старший кассир</t>
+  </si>
+  <si>
+    <t>Касса1</t>
+  </si>
+  <si>
+    <t>Касса2</t>
+  </si>
+  <si>
+    <t>Касса3</t>
+  </si>
+  <si>
+    <t>Менеджер СПО</t>
+  </si>
+  <si>
+    <t>Сервис центр</t>
+  </si>
+  <si>
+    <t>Технолог реставратор</t>
+  </si>
+  <si>
+    <t>450, 585</t>
+  </si>
+  <si>
+    <t>Старший кладовщик</t>
+  </si>
+  <si>
+    <t>Зам. Старшего кладовщика</t>
+  </si>
+  <si>
+    <t>Кладовщик</t>
+  </si>
+  <si>
+    <t>Старший комендант</t>
   </si>
   <si>
     <t>Комендант</t>
@@ -53,86 +169,421 @@
     <t>Мерчендайзеры</t>
   </si>
   <si>
+    <t>563, 564</t>
+  </si>
+  <si>
     <t>Сборщики мебели</t>
   </si>
   <si>
+    <t>543, 544</t>
+  </si>
+  <si>
+    <t>Системный администратор</t>
+  </si>
+  <si>
+    <t>Охрана</t>
+  </si>
+  <si>
+    <t>Пост охраны торговый зал</t>
+  </si>
+  <si>
+    <t>Пост охраны склад</t>
+  </si>
+  <si>
     <t>Клининг</t>
-  </si>
-  <si>
-    <t>Охрана</t>
-  </si>
-  <si>
-    <t>Сотрудники СПО</t>
-  </si>
-  <si>
-    <t>Менеджер СПО</t>
-  </si>
-  <si>
-    <t>Менеджер Посуда</t>
-  </si>
-  <si>
-    <t>Менеджер Шторы</t>
-  </si>
-  <si>
-    <t>Менеджер Текстиль</t>
-  </si>
-  <si>
-    <t>Дежурный менеджер</t>
-  </si>
-  <si>
-    <t>Старший кассир</t>
-  </si>
-  <si>
-    <t>Старший комендант</t>
-  </si>
-  <si>
-    <t>Реставратор</t>
-  </si>
-  <si>
-    <t>825461,825462,825463</t>
-  </si>
-  <si>
-    <t>Кладовщик 2 этаж</t>
-  </si>
-  <si>
-    <t>Дежурный специалист</t>
-  </si>
-  <si>
-    <t>Сис.администратор</t>
-  </si>
-  <si>
-    <t>Менеджер Спальни</t>
-  </si>
-  <si>
-    <t>Менеджер Кухни</t>
-  </si>
-  <si>
-    <t>Менеджер Гостиных</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -140,27 +591,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -209,7 +955,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -244,7 +990,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -418,30 +1164,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,208 +1190,473 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>825535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>825533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1">
-        <v>825534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B23" s="3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1">
-        <v>825536</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>825501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
-        <v>825514</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>825513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>825563.82556400006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
-        <v>825585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>825543.82554400002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B24" s="3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1">
-        <v>825515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1">
-        <v>825553</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>825503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>825506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1">
-        <v>825507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1">
-        <v>825504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1">
-        <v>825505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>825555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
-        <v>825542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1">
-        <v>825512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1">
-        <v>825571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" s="3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1">
-        <v>825502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B26" s="6">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1">
-        <v>825511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B27" s="6">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1">
-        <v>825551</v>
+      <c r="B28" s="6">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="6">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Телефоны.xlsx
+++ b/Телефоны.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11745"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Должность</t>
   </si>
@@ -40,45 +40,6 @@
     <t>Менеджер отдела «Мебель для прихожих»</t>
   </si>
   <si>
-    <t>Кухни 1 ( рум сет А11-030)</t>
-  </si>
-  <si>
-    <t>Кухни планируемые 1</t>
-  </si>
-  <si>
-    <t>Кухни планируемые 2</t>
-  </si>
-  <si>
-    <t>Кухни планируемые 3</t>
-  </si>
-  <si>
-    <t>Кухни планируемые 4</t>
-  </si>
-  <si>
-    <t>Спальни 1</t>
-  </si>
-  <si>
-    <t>Спальни 2</t>
-  </si>
-  <si>
-    <t>Спальни 3 (Флор мебели)</t>
-  </si>
-  <si>
-    <t>Спальни 4</t>
-  </si>
-  <si>
-    <t>Гостиные 1</t>
-  </si>
-  <si>
-    <t>Гостиные 2</t>
-  </si>
-  <si>
-    <t>Гостиные 3</t>
-  </si>
-  <si>
-    <t>Шкафы(планировщик Oscr)</t>
-  </si>
-  <si>
     <t>Руководитель направления "Товары для дома"</t>
   </si>
   <si>
@@ -130,15 +91,6 @@
     <t>Старший кассир</t>
   </si>
   <si>
-    <t>Касса1</t>
-  </si>
-  <si>
-    <t>Касса2</t>
-  </si>
-  <si>
-    <t>Касса3</t>
-  </si>
-  <si>
     <t>Менеджер СПО</t>
   </si>
   <si>
@@ -154,10 +106,13 @@
     <t>Старший кладовщик</t>
   </si>
   <si>
-    <t>Зам. Старшего кладовщика</t>
-  </si>
-  <si>
-    <t>Кладовщик</t>
+    <t>Кладовщик(1й этаж)</t>
+  </si>
+  <si>
+    <t>Кладовщик(2й этаж)</t>
+  </si>
+  <si>
+    <t>Дежурный специалист</t>
   </si>
   <si>
     <t>Старший комендант</t>
@@ -198,9 +153,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -259,54 +214,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,9 +229,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,44 +316,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,16 +548,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,28 +588,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,148 +647,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1170,15 +1125,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="43.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1239,35 +1194,35 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
-        <v>211</v>
+      <c r="B8" s="3">
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
-        <v>215</v>
+      <c r="B9" s="3">
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6">
-        <v>216</v>
+      <c r="B10" s="3">
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
-        <v>217</v>
+      <c r="B11" s="3">
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1275,7 +1230,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>218</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1283,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>201</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1291,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="6">
-        <v>202</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1299,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="6">
-        <v>203</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1307,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="6">
-        <v>204</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1315,7 +1270,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="6">
-        <v>251</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1323,7 +1278,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <v>252</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1331,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="6">
-        <v>253</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1339,55 +1294,55 @@
         <v>20</v>
       </c>
       <c r="B20" s="6">
-        <v>206</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="6">
-        <v>207</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>505</v>
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>542</v>
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6">
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3">
-        <v>512</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>531</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6">
-        <v>341</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1395,262 +1350,126 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>342</v>
+        <v>462</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="6">
-        <v>291</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
-        <v>292</v>
-      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
-        <v>293</v>
+      <c r="B30" s="3">
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
-        <v>311</v>
+      <c r="B31" s="3">
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
-        <v>334</v>
+      <c r="B32" s="3">
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
-        <v>331</v>
+      <c r="B33" s="3">
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
-        <v>351</v>
+      <c r="B34" s="3">
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
-        <v>271</v>
+      <c r="B35" s="3">
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
-        <v>352</v>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6">
-        <v>353</v>
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
+      <c r="A38" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="3">
-        <v>553</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6">
-        <v>452</v>
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3">
+        <v>506</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6">
-        <v>453</v>
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3">
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6">
-        <v>454</v>
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
+      <c r="A42" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B42" s="3">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="6">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="6">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="3">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="3">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="3">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3">
         <v>507</v>
       </c>
     </row>
